--- a/lunan/php_nodes.xlsx
+++ b/lunan/php_nodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>运行原理？</t>
   </si>
@@ -671,15 +671,139 @@
 //若是不用date_default_timezone_set方法，也可修改日志：prc是北京时区的，UTC是格林威治时区，修改需要去php.ini查(ctrl+f)date.timezone-重启服务！！！
 PRC(php文档中可以查到)</t>
   </si>
+  <si>
+    <t>【2-1 php与数据库】</t>
+  </si>
+  <si>
+    <t>天龙八部(php链接数据库基本步骤)</t>
+  </si>
+  <si>
+    <t>1、连接数据库
+2、判断是否连接成功
+3、设置字符集
+4、选择数据库
+5、准备SQL语句
+6、发送SQL语句($res = mysqli_query($link,$sql);)
+7、处理结果集（$result = mysqli_fetch_assoc($res);）
+8、释放资源（关闭数据库）</t>
+  </si>
+  <si>
+    <t>php操作数据库常用语句</t>
+  </si>
+  <si>
+    <t>$result = mysqli_query($link,$sql);//返回一个对象
+mysqli_fetch_assoc($res);//一个一个往下读，返回的时候一个一维的关联数组（必须记住）
+mysqli_fetch_row($result)//返回一个索引数组
+mysqli_fetch_array($result)//返回一个有索引又有关联的数组mysqli_num_rows($result)//返回查询时候的结果集的总条数
+mysqli_affected_rows($link)//返回你修改的，删除，添加的时候受影响的行数
+mysqli_insert_id($link);//返回的是你插入的当前的数据的自增的id</t>
+  </si>
+  <si>
+    <t>php链接mysql代码示例</t>
+  </si>
+  <si>
+    <t>$link = mysqli_connect("localhost","root","qq359784","lbyx");
+//2.判断是否连接成功
+    if (!$link) {
+     exit('数据库连接失败');
+    }
+ //3.设置字符集
+ mysqli_set_charset($link,'utf8');
+ //4.选择数据库
+ mysqli_select_db($link,'lbyx');//链接数据库时可以直接选择数据库，所以，这句话可以省略
+ //5.准备sql语句 //select update insert delete
+$sql = "select * from t_goods";
+// var_dump($res);
+ //6.发送sql语句
+  $res = mysqli_query($link,$sql);
+ //7.处理结果集
+ $result = mysqli_fetch_assoc($res);
+ $result = mysqli_fetch_assoc($res);
+ $result = mysqli_fetch_assoc($res);
+ var_dump($result);
+ //8.关闭数据库(释放资源)
+ mysqli_close($link);</t>
+  </si>
+  <si>
+    <t>【2-3 数据库的增、删、改、查】</t>
+  </si>
+  <si>
+    <t>【Windows下使用DOS命令进入MySQL数据库】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.启动mysql数据库：在出来的DOS命令窗口中输入 net start mysql，或者使用快捷键Windows键（在键盘上有个Windows标志的按键）+ R直接
+输入net start mysql后回车。（另附：关闭的命令为net stop mysql）
+2.在DOS命令窗口输入 mysql -hlocalhost -uroot -p回车 进入mysql数据库，其中-h表示服务器名，localhost表示本地；-u为数据库用户名
+，root是mysql默认用户名；-p为密码，如果设置了密码，可直接在-p后链接输入，如：-p123456，用户没有设置密码，显示Enter password时
+，直接回车即可。
+3.注意，如果你的mysql没有安装在C盘下，你需要先使用DOS命令进入mysql的安装目录下的bin目录中。以我的电脑为例，方法如下：输入D:进
+入D盘，在输入cd D:\Tools\MySQL5.5.25\bin进入到mysql的bin目录下才可以输入 mysql -hlocalhost -uroot -p
+4.当显示此界面时表示成功链接到了mysql数据库
+（welcome to...）
+5.输入show databases；显示你有的数据库（mysql数据库中的命令必须以分号结尾“；”）
+6.如果要退出mysql数据库，输入exit;回车（bey）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【怎么打开phpMyAdmin/或者php链接数据库，写对了用户名和密码都连不上】（
+</t>
+  </si>
+  <si>
+    <t>（
+代码：
+$link = mysqli_connect('localhost','root','qq******');
+var_dump($link);
+）
+点击wamp中的phpMyAdmin,提示输入用户名密码。（输入root，qq******,如果不对，可以更改。）
+1.cmd
+2.到wamp的数据库bin目录下：F:\softs\wamp\wamp-new\wamp64\bin
+3.net start mysql
+4.mysql -uroot -p
+5.输入密码：qq******（显示，welcome。。。）
+6.use mysql
+7.update user password=password('你的密码') where user='root';（别忘了加分号）</t>
+  </si>
+  <si>
+    <t>【链接navicate-mysql报错1067】
+（navicate-root-qq******）</t>
+  </si>
+  <si>
+    <t>1.cmd
+2.net start mysql（如果报错1067，下一步）
+3.右键计算机管理-服务-关闭mysql5_pn
+4.重新输入net start mysql</t>
+  </si>
+  <si>
+    <t>【数据库增删改查过程中出现的错】</t>
+  </si>
+  <si>
+    <t>1.$boolean = mysqli_query($link,$sql);
+if ($boolean &amp;&amp; mysqli_affected_rows($link))
+注意：
+(1)if判断$boolean这种情况最好先var_dump($boolean);
+(2)删除的if判断中用mysqli_affected_rows($link)，查找中用mysqli_affected_rows($link)，add中用mysqli_insert_id($link)
+2.获取id,隐式元素:&lt;input type="hidden" value="&lt;?php echo $rows['id'];?&gt;" name="id"/&gt; 
+3.name一定要写，导航栏url才会显示:&lt;input type="hidden" value="&lt;?php echo $rows['id'];?&gt;" name="id"/&gt; 
+4.$sql = "insert into t_bbs(username , password , address , sex , age) values('$username','$password','$address',$sex,
+$age)";
+注意：
+（1）Ctrl+q:新建查询；
+（2）echo $sql; 查询的实际的元素，可以复制在Navicat中查看错误。
+（3）新建表的长度一定要设置好，像是密码，长度较长，太短会报错（1406）。
+（4）id，主键一定要在下面选中自动递增，否则在添加数据的时候回自动设置为0，然后不可再添加，
+     报错（1364 - Field 'id' doesn't have a default value）
+5.value="1"别忘了设置：&lt;input type="radio" name="sex"  value="1" /&gt;男
+6.别忘了字符串形式要加引号，'$username'：values('$username','$password','$address',$sex,$age)";</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -700,14 +824,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -721,6 +853,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -729,55 +869,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,13 +879,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,8 +899,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,14 +958,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -844,187 +968,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,11 +1162,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,42 +1186,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1112,17 +1216,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,6 +1235,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1143,10 +1267,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,16 +1279,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,115 +1297,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1620,10 +1744,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A75" sqref="$A75:$XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2021,10 +2145,10 @@
       </c>
     </row>
     <row r="56" ht="27" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2032,7 +2156,7 @@
       <c r="A57" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2045,7 +2169,7 @@
       <c r="A59" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2058,17 +2182,17 @@
       <c r="A61" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="63" ht="81" spans="2:2">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2078,10 +2202,10 @@
       </c>
     </row>
     <row r="65" ht="108" spans="1:2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2094,7 +2218,7 @@
       <c r="A67" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2102,7 +2226,7 @@
       <c r="A68" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2110,8 +2234,74 @@
       <c r="A69" t="s">
         <v>111</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" ht="108" spans="1:2">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" ht="121.5" spans="1:2">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" ht="310.5" spans="1:2">
+      <c r="A73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" ht="243" spans="1:2">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" ht="202.5" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" ht="54" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" ht="337.5" spans="1:2">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/lunan/php_nodes.xlsx
+++ b/lunan/php_nodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>运行原理？</t>
   </si>
@@ -795,6 +795,43 @@
 5.value="1"别忘了设置：&lt;input type="radio" name="sex"  value="1" /&gt;男
 6.别忘了字符串形式要加引号，'$username'：values('$username','$password','$address',$sex,$age)";</t>
   </si>
+  <si>
+    <t>【2-12 GD】</t>
+  </si>
+  <si>
+    <t>1、创建画布
+2、创建颜色
+3、用GD库给咱们的函数去画画
+4、告诉浏览器你的mime类型
+5、输出到浏览器或者可以放到你的本地
+6、销毁资源</t>
+  </si>
+  <si>
+    <t>sublime：注释换行</t>
+  </si>
+  <si>
+    <t>//shift+inter注释下一行换行不会继续注释</t>
+  </si>
+  <si>
+    <t>1-13-GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.图像的处理函数
+2.关于GD的相关函数
+3.输出
+4.形状
+5.打开图片生成一个新的图片
+6.注意：告知浏览器类型
+7.旋转：imagerotate
+8.写字
+9.拷贝并合并
+10.获取图片信息
+11.相关函数（创建图像资源函数）
+</t>
+  </si>
+  <si>
+    <t>【2-14 封装验证码函数】</t>
+  </si>
 </sst>
 </file>
 
@@ -802,8 +839,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1409,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1424,6 +1461,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1744,10 +1784,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A75" sqref="$A75:$XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2276,23 +2316,23 @@
       <c r="A75" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" ht="202.5" spans="1:2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="77" ht="54" spans="1:2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2300,8 +2340,39 @@
       <c r="A78" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" ht="81" spans="2:2">
+      <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" ht="175.5" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
